--- a/Basededatos/FURANOS.xlsx
+++ b/Basededatos/FURANOS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://luzdelsurlds-my.sharepoint.com/personal/roquispec_luzdelsur_com_pe/Documents/Documentos/Estudios de Ingreso/ProyectoRyD/Basededatos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roquispec\OneDrive - LUZ DEL SUR S.A.A\Documentos\Estudios de Ingreso\ProyectoRyD_V2\Basededatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{493C8160-5064-44A0-A47F-7B162137B826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69832B3E-F3C0-4783-B169-D927DB875C11}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{493C8160-5064-44A0-A47F-7B162137B826}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{33EABDEF-D618-4310-AF72-152D6663BFAE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{71916C58-564B-4457-BF76-DAA941C95708}"/>
   </bookViews>
@@ -453,7 +453,7 @@
   <dimension ref="B2:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F5:F6"/>
+      <selection activeCell="D3" sqref="D3:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,9 +482,7 @@
       <c r="C3" s="5">
         <v>44693</v>
       </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -493,9 +491,7 @@
       <c r="C4" s="5">
         <v>43995</v>
       </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
@@ -504,9 +500,7 @@
       <c r="C5" s="5">
         <v>43490</v>
       </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
@@ -515,9 +509,7 @@
       <c r="C6" s="5">
         <v>43321</v>
       </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
@@ -526,9 +518,7 @@
       <c r="C7" s="5">
         <v>44730</v>
       </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
@@ -537,9 +527,7 @@
       <c r="C8" s="5">
         <v>43995</v>
       </c>
-      <c r="D8" s="2">
-        <v>2</v>
-      </c>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
@@ -548,9 +536,7 @@
       <c r="C9" s="5">
         <v>42390</v>
       </c>
-      <c r="D9" s="2">
-        <v>2</v>
-      </c>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
@@ -559,9 +545,7 @@
       <c r="C10" s="5">
         <v>42126</v>
       </c>
-      <c r="D10" s="2">
-        <v>143</v>
-      </c>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
@@ -570,9 +554,7 @@
       <c r="C11" s="5">
         <v>45489</v>
       </c>
-      <c r="D11" s="2">
-        <v>160</v>
-      </c>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
@@ -581,9 +563,7 @@
       <c r="C12" s="5">
         <v>43963</v>
       </c>
-      <c r="D12" s="2">
-        <v>207</v>
-      </c>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
@@ -592,9 +572,7 @@
       <c r="C13" s="5">
         <v>43286</v>
       </c>
-      <c r="D13" s="2">
-        <v>319</v>
-      </c>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
@@ -603,9 +581,7 @@
       <c r="C14" s="5">
         <v>42120</v>
       </c>
-      <c r="D14" s="2">
-        <v>263</v>
-      </c>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
@@ -614,9 +590,7 @@
       <c r="C15" s="5">
         <v>45609</v>
       </c>
-      <c r="D15" s="2">
-        <v>132</v>
-      </c>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
@@ -625,9 +599,7 @@
       <c r="C16" s="5">
         <v>43766</v>
       </c>
-      <c r="D16" s="2">
-        <v>241</v>
-      </c>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
@@ -636,9 +608,7 @@
       <c r="C17" s="5">
         <v>43176</v>
       </c>
-      <c r="D17" s="2">
-        <v>388</v>
-      </c>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
@@ -647,9 +617,7 @@
       <c r="C18" s="5">
         <v>42322</v>
       </c>
-      <c r="D18" s="2">
-        <v>335</v>
-      </c>
+      <c r="D18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Basededatos/FURANOS.xlsx
+++ b/Basededatos/FURANOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roquispec\OneDrive - LUZ DEL SUR S.A.A\Documentos\Estudios de Ingreso\ProyectoRyD_V2\Basededatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{493C8160-5064-44A0-A47F-7B162137B826}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{33EABDEF-D618-4310-AF72-152D6663BFAE}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{493C8160-5064-44A0-A47F-7B162137B826}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF41E667-FB2B-4005-BB4A-618141E06FE7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{71916C58-564B-4457-BF76-DAA941C95708}"/>
   </bookViews>
@@ -37,14 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>SERIE</t>
   </si>
   <si>
-    <t>230531-01</t>
-  </si>
-  <si>
     <t>Fecha</t>
   </si>
   <si>
@@ -52,6 +49,321 @@
   </si>
   <si>
     <t>146660T3</t>
+  </si>
+  <si>
+    <t>D518293</t>
+  </si>
+  <si>
+    <t>D518292</t>
+  </si>
+  <si>
+    <t>D518291</t>
+  </si>
+  <si>
+    <t>V101038</t>
+  </si>
+  <si>
+    <t>HST15082-1-1</t>
+  </si>
+  <si>
+    <t>HST15082-1-2</t>
+  </si>
+  <si>
+    <t>HST15082-1-3</t>
+  </si>
+  <si>
+    <t>16625S</t>
+  </si>
+  <si>
+    <t>16631S</t>
+  </si>
+  <si>
+    <t>16627S</t>
+  </si>
+  <si>
+    <t>P186248</t>
+  </si>
+  <si>
+    <t>P186249</t>
+  </si>
+  <si>
+    <t>P186250</t>
+  </si>
+  <si>
+    <t>16626S</t>
+  </si>
+  <si>
+    <t>16629S</t>
+  </si>
+  <si>
+    <t>16630S</t>
+  </si>
+  <si>
+    <t>770027-01</t>
+  </si>
+  <si>
+    <t>150700A/02</t>
+  </si>
+  <si>
+    <t>149292T</t>
+  </si>
+  <si>
+    <t>160967T</t>
+  </si>
+  <si>
+    <t>161159T2</t>
+  </si>
+  <si>
+    <t>B611545</t>
+  </si>
+  <si>
+    <t>L-30507</t>
+  </si>
+  <si>
+    <t>150700A/01</t>
+  </si>
+  <si>
+    <t>150700B/01</t>
+  </si>
+  <si>
+    <t>6620 501</t>
+  </si>
+  <si>
+    <t>6620 500</t>
+  </si>
+  <si>
+    <t>6620 503</t>
+  </si>
+  <si>
+    <t>V101040</t>
+  </si>
+  <si>
+    <t>146659T3</t>
+  </si>
+  <si>
+    <t>770021-01</t>
+  </si>
+  <si>
+    <t>B93033</t>
+  </si>
+  <si>
+    <t>B608156</t>
+  </si>
+  <si>
+    <t>L-30230</t>
+  </si>
+  <si>
+    <t>B615152</t>
+  </si>
+  <si>
+    <t>P186257</t>
+  </si>
+  <si>
+    <t>P186255</t>
+  </si>
+  <si>
+    <t>P186256</t>
+  </si>
+  <si>
+    <t>LP-000598</t>
+  </si>
+  <si>
+    <t>146660T1</t>
+  </si>
+  <si>
+    <t>B615153</t>
+  </si>
+  <si>
+    <t>123159T</t>
+  </si>
+  <si>
+    <t>L-30506</t>
+  </si>
+  <si>
+    <t>L-30477</t>
+  </si>
+  <si>
+    <t>PT9003-01</t>
+  </si>
+  <si>
+    <t>146659T2</t>
+  </si>
+  <si>
+    <t>770028-01</t>
+  </si>
+  <si>
+    <t>PA 277 - 01</t>
+  </si>
+  <si>
+    <t>PA 277 - 02</t>
+  </si>
+  <si>
+    <t>760047-01</t>
+  </si>
+  <si>
+    <t>146659T1</t>
+  </si>
+  <si>
+    <t>760046-01</t>
+  </si>
+  <si>
+    <t>V101039</t>
+  </si>
+  <si>
+    <t>V101042</t>
+  </si>
+  <si>
+    <t>LP-000473</t>
+  </si>
+  <si>
+    <t>LP-000476</t>
+  </si>
+  <si>
+    <t>L-30155</t>
+  </si>
+  <si>
+    <t>161642T</t>
+  </si>
+  <si>
+    <t>146660T2</t>
+  </si>
+  <si>
+    <t>123157T</t>
+  </si>
+  <si>
+    <t>770023-01</t>
+  </si>
+  <si>
+    <t>L-30108</t>
+  </si>
+  <si>
+    <t>L-30406</t>
+  </si>
+  <si>
+    <t>V147101</t>
+  </si>
+  <si>
+    <t>V147102</t>
+  </si>
+  <si>
+    <t>V147103</t>
+  </si>
+  <si>
+    <t>V163201</t>
+  </si>
+  <si>
+    <t>V147105</t>
+  </si>
+  <si>
+    <t>V147107</t>
+  </si>
+  <si>
+    <t>770003-01</t>
+  </si>
+  <si>
+    <t>760026-01</t>
+  </si>
+  <si>
+    <t>LP-000584</t>
+  </si>
+  <si>
+    <t>B607398</t>
+  </si>
+  <si>
+    <t>750019-01</t>
+  </si>
+  <si>
+    <t>123161T</t>
+  </si>
+  <si>
+    <t>760045-01</t>
+  </si>
+  <si>
+    <t>1ZBR60816</t>
+  </si>
+  <si>
+    <t>1ZBR60817</t>
+  </si>
+  <si>
+    <t>1ZBR60818</t>
+  </si>
+  <si>
+    <t>30N14081601</t>
+  </si>
+  <si>
+    <t>30N14081602</t>
+  </si>
+  <si>
+    <t>30N14081603</t>
+  </si>
+  <si>
+    <t>V147106</t>
+  </si>
+  <si>
+    <t>V180401</t>
+  </si>
+  <si>
+    <t>V180402</t>
+  </si>
+  <si>
+    <t>V180403</t>
+  </si>
+  <si>
+    <t>161566T</t>
+  </si>
+  <si>
+    <t>5337PA196-02</t>
+  </si>
+  <si>
+    <t>5337PA196-03</t>
+  </si>
+  <si>
+    <t>5337PA196-04</t>
+  </si>
+  <si>
+    <t>5337PA196-05</t>
+  </si>
+  <si>
+    <t>L-30442</t>
+  </si>
+  <si>
+    <t>V101041</t>
+  </si>
+  <si>
+    <t>L-30443</t>
+  </si>
+  <si>
+    <t>LP-000474</t>
+  </si>
+  <si>
+    <t>LP-000475</t>
+  </si>
+  <si>
+    <t>V101043</t>
+  </si>
+  <si>
+    <t>L-10228</t>
+  </si>
+  <si>
+    <t>147926T1</t>
+  </si>
+  <si>
+    <t>L-30493</t>
+  </si>
+  <si>
+    <t>132006T1</t>
+  </si>
+  <si>
+    <t>123158T</t>
+  </si>
+  <si>
+    <t>L-30436</t>
+  </si>
+  <si>
+    <t>123160T</t>
+  </si>
+  <si>
+    <t>750005-01</t>
   </si>
 </sst>
 </file>
@@ -450,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9FE8D7-0ED1-4C7D-B4DF-32AEE144EFAC}">
-  <dimension ref="B2:D18"/>
+  <dimension ref="B2:D135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D18"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="D143" sqref="D143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
@@ -480,144 +792,1459 @@
         <v>4</v>
       </c>
       <c r="C3" s="5">
-        <v>44693</v>
-      </c>
-      <c r="D3" s="2"/>
+        <v>45167</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="5">
-        <v>43995</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>45167</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" s="5">
-        <v>43490</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>45167</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6" s="5">
-        <v>43321</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>45172</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
-        <v>364076</v>
+        <v>551873</v>
       </c>
       <c r="C7" s="5">
-        <v>44730</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>45265</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
-        <v>364076</v>
+        <v>551875</v>
       </c>
       <c r="C8" s="5">
-        <v>43995</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>45265</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
-        <v>364076</v>
+        <v>551874</v>
       </c>
       <c r="C9" s="5">
-        <v>42390</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>45265</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="4">
-        <v>364076</v>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="C10" s="5">
-        <v>42126</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>39049</v>
+      </c>
+      <c r="D10" s="2">
+        <v>319</v>
+      </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C11" s="5">
-        <v>45489</v>
-      </c>
-      <c r="D11" s="2"/>
+        <v>39049</v>
+      </c>
+      <c r="D11" s="2">
+        <v>388</v>
+      </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C12" s="5">
-        <v>43963</v>
-      </c>
-      <c r="D12" s="2"/>
+        <v>39049</v>
+      </c>
+      <c r="D12" s="2">
+        <v>294</v>
+      </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C13" s="5">
-        <v>43286</v>
-      </c>
-      <c r="D13" s="2"/>
+        <v>38485</v>
+      </c>
+      <c r="D13" s="2">
+        <v>744</v>
+      </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C14" s="5">
-        <v>42120</v>
-      </c>
-      <c r="D14" s="2"/>
+        <v>38485</v>
+      </c>
+      <c r="D14" s="2">
+        <v>630</v>
+      </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="4">
-        <v>338118</v>
+      <c r="B15" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C15" s="5">
-        <v>45609</v>
-      </c>
-      <c r="D15" s="2"/>
+        <v>39036</v>
+      </c>
+      <c r="D15" s="2">
+        <v>710</v>
+      </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
-        <v>338118</v>
+        <v>185634</v>
       </c>
       <c r="C16" s="5">
-        <v>43766</v>
-      </c>
-      <c r="D16" s="2"/>
+        <v>43570</v>
+      </c>
+      <c r="D16" s="2">
+        <v>32</v>
+      </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
-        <v>338118</v>
+        <v>185635</v>
       </c>
       <c r="C17" s="5">
-        <v>43176</v>
-      </c>
-      <c r="D17" s="2"/>
+        <v>43570</v>
+      </c>
+      <c r="D17" s="2">
+        <v>34</v>
+      </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
-        <v>338118</v>
+        <v>185636</v>
       </c>
       <c r="C18" s="5">
-        <v>42322</v>
-      </c>
-      <c r="D18" s="2"/>
+        <v>43570</v>
+      </c>
+      <c r="D18" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="5">
+        <v>43570</v>
+      </c>
+      <c r="D19" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="5">
+        <v>43570</v>
+      </c>
+      <c r="D20" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="5">
+        <v>43570</v>
+      </c>
+      <c r="D21" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="5">
+        <v>38485</v>
+      </c>
+      <c r="D22" s="2">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="5">
+        <v>39036</v>
+      </c>
+      <c r="D23" s="2">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="5">
+        <v>38485</v>
+      </c>
+      <c r="D24" s="2">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="5">
+        <v>43571</v>
+      </c>
+      <c r="D25" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="5">
+        <v>45151</v>
+      </c>
+      <c r="D26" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="4">
+        <v>364072</v>
+      </c>
+      <c r="C27" s="5">
+        <v>43571</v>
+      </c>
+      <c r="D27" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="5">
+        <v>45126</v>
+      </c>
+      <c r="D28" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="5">
+        <v>45126</v>
+      </c>
+      <c r="D29" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="5">
+        <v>45126</v>
+      </c>
+      <c r="D30" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="5">
+        <v>45265</v>
+      </c>
+      <c r="D31" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="5">
+        <v>45265</v>
+      </c>
+      <c r="D32" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="4">
+        <v>185519</v>
+      </c>
+      <c r="C33" s="5">
+        <v>40046</v>
+      </c>
+      <c r="D33" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="4">
+        <v>100138</v>
+      </c>
+      <c r="C34" s="5">
+        <v>43614</v>
+      </c>
+      <c r="D34" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="5">
+        <v>44804</v>
+      </c>
+      <c r="D35" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="4">
+        <v>146916</v>
+      </c>
+      <c r="C36" s="5">
+        <v>43313</v>
+      </c>
+      <c r="D36" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="5">
+        <v>42370</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="5">
+        <v>37220</v>
+      </c>
+      <c r="D38" s="2">
+        <v>225.8</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="5">
+        <v>39036</v>
+      </c>
+      <c r="D39" s="2">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="5">
+        <v>39036</v>
+      </c>
+      <c r="D40" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="4">
+        <v>185466</v>
+      </c>
+      <c r="C41" s="5">
+        <v>40296</v>
+      </c>
+      <c r="D41" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="5">
+        <v>45196</v>
+      </c>
+      <c r="D42" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="5">
+        <v>45127</v>
+      </c>
+      <c r="D43" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="5">
+        <v>45127</v>
+      </c>
+      <c r="D44" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="5">
+        <v>39043</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="5">
+        <v>43319</v>
+      </c>
+      <c r="D46" s="2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="4">
+        <v>359111</v>
+      </c>
+      <c r="C47" s="5">
+        <v>43577</v>
+      </c>
+      <c r="D47" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="5">
+        <v>45245</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="5">
+        <v>43101</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="4">
+        <v>364074</v>
+      </c>
+      <c r="C50" s="5">
+        <v>43584</v>
+      </c>
+      <c r="D50" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="4">
+        <v>146917</v>
+      </c>
+      <c r="C51" s="5">
+        <v>45273</v>
+      </c>
+      <c r="D51" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="5">
+        <v>43578</v>
+      </c>
+      <c r="D52" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="5">
+        <v>43578</v>
+      </c>
+      <c r="D53" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" s="5">
+        <v>43578</v>
+      </c>
+      <c r="D54" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55" s="5">
+        <v>40296</v>
+      </c>
+      <c r="D55" s="2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" s="5">
+        <v>43578</v>
+      </c>
+      <c r="D56" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" s="5">
+        <v>45228</v>
+      </c>
+      <c r="D57" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" s="5">
+        <v>45228</v>
+      </c>
+      <c r="D58" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" s="5">
+        <v>45158</v>
+      </c>
+      <c r="D59" s="2">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="5">
+        <v>40298</v>
+      </c>
+      <c r="D60" s="2">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C61" s="5">
+        <v>45158</v>
+      </c>
+      <c r="D61" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C62" s="5">
+        <v>44323</v>
+      </c>
+      <c r="D62" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C63" s="5">
+        <v>43572</v>
+      </c>
+      <c r="D63" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" s="4">
+        <v>364075</v>
+      </c>
+      <c r="C64" s="5">
+        <v>43311</v>
+      </c>
+      <c r="D64" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C65" s="5">
+        <v>45173</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C66" s="5">
+        <v>45173</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C67" s="5">
+        <v>43572</v>
+      </c>
+      <c r="D67" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" s="4">
+        <v>364073</v>
+      </c>
+      <c r="C68" s="5">
+        <v>43572</v>
+      </c>
+      <c r="D68" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C69" s="5">
+        <v>43572</v>
+      </c>
+      <c r="D69" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C70" s="5">
+        <v>43314</v>
+      </c>
+      <c r="D70" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C71" s="5">
+        <v>43578</v>
+      </c>
+      <c r="D71" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72" s="5">
+        <v>44802</v>
+      </c>
+      <c r="D72" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C73" s="5">
+        <v>38477</v>
+      </c>
+      <c r="D73" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C74" s="5">
+        <v>44403</v>
+      </c>
+      <c r="D74" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C75" s="5">
+        <v>43307</v>
+      </c>
+      <c r="D75" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C76" s="5">
+        <v>39042</v>
+      </c>
+      <c r="D76" s="2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C77" s="5">
+        <v>45166</v>
+      </c>
+      <c r="D77" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C78" s="5">
+        <v>44804</v>
+      </c>
+      <c r="D78" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C79" s="5">
+        <v>43584</v>
+      </c>
+      <c r="D79" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C80" s="5">
+        <v>45223</v>
+      </c>
+      <c r="D80" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C81" s="5">
+        <v>38966</v>
+      </c>
+      <c r="D81" s="2">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C82" s="5">
+        <v>45254</v>
+      </c>
+      <c r="D82" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C83" s="5">
+        <v>45244</v>
+      </c>
+      <c r="D83" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C84" s="5">
+        <v>45244</v>
+      </c>
+      <c r="D84" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C85" s="5">
+        <v>45313</v>
+      </c>
+      <c r="D85" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C86" s="5">
+        <v>45244</v>
+      </c>
+      <c r="D86" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C87" s="5"/>
+      <c r="D87" s="2"/>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C88" s="5">
+        <v>43314</v>
+      </c>
+      <c r="D88" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C89" s="5">
+        <v>40297</v>
+      </c>
+      <c r="D89" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90" s="4">
+        <v>364077</v>
+      </c>
+      <c r="C90" s="5">
+        <v>43311</v>
+      </c>
+      <c r="D90" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C91" s="5">
+        <v>38484</v>
+      </c>
+      <c r="D91" s="2">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B92" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C92" s="5">
+        <v>45167</v>
+      </c>
+      <c r="D92" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C93" s="5">
+        <v>44448</v>
+      </c>
+      <c r="D93" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B94" s="4">
+        <v>359110</v>
+      </c>
+      <c r="C94" s="5">
+        <v>43572</v>
+      </c>
+      <c r="D94" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C95" s="5">
+        <v>45138</v>
+      </c>
+      <c r="D95" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C96" s="5">
+        <v>45138</v>
+      </c>
+      <c r="D96" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C97" s="5">
+        <v>43321</v>
+      </c>
+      <c r="D97" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C98" s="5">
+        <v>43321</v>
+      </c>
+      <c r="D98" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C99" s="5">
+        <v>43321</v>
+      </c>
+      <c r="D99" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100" s="4">
+        <v>185767</v>
+      </c>
+      <c r="C100" s="5">
+        <v>43579</v>
+      </c>
+      <c r="D100" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B101" s="4">
+        <v>185766</v>
+      </c>
+      <c r="C101" s="5">
+        <v>43579</v>
+      </c>
+      <c r="D101" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102" s="4">
+        <v>185765</v>
+      </c>
+      <c r="C102" s="5">
+        <v>43579</v>
+      </c>
+      <c r="D102" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103" s="4">
+        <v>364078</v>
+      </c>
+      <c r="C103" s="5">
+        <v>45265</v>
+      </c>
+      <c r="D103" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B104" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C104" s="5">
+        <v>45197</v>
+      </c>
+      <c r="D104" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B105" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C105" s="5">
+        <v>45200</v>
+      </c>
+      <c r="D105" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B106" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C106" s="5">
+        <v>45200</v>
+      </c>
+      <c r="D106" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B107" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C107" s="5">
+        <v>45200</v>
+      </c>
+      <c r="D107" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B108" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C108" s="5">
+        <v>44927</v>
+      </c>
+      <c r="D108" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B109" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C109" s="5">
+        <v>44927</v>
+      </c>
+      <c r="D109" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B110" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C110" s="5">
+        <v>44927</v>
+      </c>
+      <c r="D110" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B111" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C111" s="5">
+        <v>44392</v>
+      </c>
+      <c r="D111" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B112" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C112" s="5">
+        <v>39190</v>
+      </c>
+      <c r="D112" s="2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C113" s="5">
+        <v>45214</v>
+      </c>
+      <c r="D113" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B114" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C114" s="5">
+        <v>43314</v>
+      </c>
+      <c r="D114" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B115" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C115" s="5">
+        <v>45214</v>
+      </c>
+      <c r="D115" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B116" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C116" s="5">
+        <v>39188</v>
+      </c>
+      <c r="D116" s="2">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B117" s="4">
+        <v>147400</v>
+      </c>
+      <c r="C117" s="5">
+        <v>45277</v>
+      </c>
+      <c r="D117" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B118" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C118" s="5">
+        <v>43584</v>
+      </c>
+      <c r="D118" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B119" s="4">
+        <v>146918</v>
+      </c>
+      <c r="C119" s="5">
+        <v>44384</v>
+      </c>
+      <c r="D119" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B120" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" s="5">
+        <v>41640</v>
+      </c>
+      <c r="D120" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B121" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C121" s="5">
+        <v>39038</v>
+      </c>
+      <c r="D121" s="2">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B122" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C122" s="5">
+        <v>43584</v>
+      </c>
+      <c r="D122" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B123" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C123" s="5">
+        <v>43584</v>
+      </c>
+      <c r="D123" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B124" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C124" s="5">
+        <v>43584</v>
+      </c>
+      <c r="D124" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B125" s="4">
+        <v>59571</v>
+      </c>
+      <c r="C125" s="5">
+        <v>40248</v>
+      </c>
+      <c r="D125" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B126" s="4">
+        <v>59572</v>
+      </c>
+      <c r="C126" s="5">
+        <v>40248</v>
+      </c>
+      <c r="D126" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B127" s="4">
+        <v>59573</v>
+      </c>
+      <c r="C127" s="5">
+        <v>40248</v>
+      </c>
+      <c r="D127" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B128" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C128" s="5">
+        <v>39037</v>
+      </c>
+      <c r="D128" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B129" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C129" s="5">
+        <v>45127</v>
+      </c>
+      <c r="D129" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B130" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C130" s="5">
+        <v>45127</v>
+      </c>
+      <c r="D130" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B131" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C131" s="5">
+        <v>43831</v>
+      </c>
+      <c r="D131" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B132" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C132" s="5">
+        <v>45125</v>
+      </c>
+      <c r="D132" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B133" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C133" s="5">
+        <v>45222</v>
+      </c>
+      <c r="D133" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B134" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C134" s="5">
+        <v>39966</v>
+      </c>
+      <c r="D134" s="2">
+        <v>3330</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B135" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C135" s="5">
+        <v>43314</v>
+      </c>
+      <c r="D135" s="2">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Basededatos/FURANOS.xlsx
+++ b/Basededatos/FURANOS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roquispec\OneDrive - LUZ DEL SUR S.A.A\Documentos\Estudios de Ingreso\ProyectoRyD_V2\Basededatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://luzdelsurlds-my.sharepoint.com/personal/roquispec_luzdelsur_com_pe/Documents/Documentos/Estudios de Ingreso/ProyectoRyD_V2/Basededatos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{493C8160-5064-44A0-A47F-7B162137B826}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF41E667-FB2B-4005-BB4A-618141E06FE7}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="113_{52009395-6EC5-4C11-AAE0-9356E77AADA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F8AFC9F-2A25-44BE-B09B-11EFE2C1EEB4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{71916C58-564B-4457-BF76-DAA941C95708}"/>
   </bookViews>
@@ -20,15 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
     </ext>
@@ -37,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>SERIE</t>
   </si>
@@ -364,6 +355,12 @@
   </si>
   <si>
     <t>750005-01</t>
+  </si>
+  <si>
+    <t>TempR</t>
+  </si>
+  <si>
+    <t>HumR</t>
   </si>
 </sst>
 </file>
@@ -406,7 +403,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -429,11 +426,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -444,6 +450,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -762,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9FE8D7-0ED1-4C7D-B4DF-32AEE144EFAC}">
-  <dimension ref="B2:D135"/>
+  <dimension ref="B2:F135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="D143" sqref="D143"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,7 +785,7 @@
     <col min="4" max="4" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -786,8 +795,14 @@
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
@@ -798,7 +813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
@@ -809,7 +824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
@@ -820,7 +835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
@@ -831,7 +846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>551873</v>
       </c>
@@ -842,7 +857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>551875</v>
       </c>
@@ -853,7 +868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>551874</v>
       </c>
@@ -864,7 +879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -875,7 +890,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -886,7 +901,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
@@ -897,7 +912,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
@@ -908,7 +923,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
@@ -919,7 +934,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
@@ -930,7 +945,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>185634</v>
       </c>
